--- a/delivery_count_attachments/AMGEN/202504_v1/data_delivery_AMGEN_202504.xlsx
+++ b/delivery_count_attachments/AMGEN/202504_v1/data_delivery_AMGEN_202504.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Core Data Product (Base)</t>
+          <t>Model Outputs: Standard (Regimen-based) Patient Journey</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8,047</t>
+          <t>6,593</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Model Outputs: Standard (Progression-based) Line of Therapy</t>
+          <t>Core Data Product (Base)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4,613</t>
+          <t>8,047</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Electronic Medical Records (EMR) - Common Data Model (CDM)</t>
+          <t>Open Claims - Common Data Model (CDM)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Core Data Product (Base)</t>
+          <t>Model Outputs: Standard (Progression-based) Line of Therapy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8,871</t>
+          <t>4,613</t>
         </is>
       </c>
     </row>
@@ -663,32 +663,143 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Electronic Medical Records (EMR) - Common Data Model (CDM)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Core Data Product (Base)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Small cell lung cancer (SCLC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Standard Subscription</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8,871</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RWD360</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Electronic Medical Records (EMR) - Common Data Model (CDM)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Core Data Product (Base)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Lung Cancers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Standard Subscription</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>442,183</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RWD360</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Open Claims - Common Data Model (CDM)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Model Outputs: Standard (Regimen-based) Patient Journey</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Small cell lung cancer (SCLC)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Core Data Product (Base)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Lung Cancers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Standard Subscription</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>6,593</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>339,146</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RWD360</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Analytical Layer</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Core Data Product (Base)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Lung Cancers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Standard Subscription</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>446,404</t>
         </is>
       </c>
     </row>
